--- a/input/df_input_test.xlsx
+++ b/input/df_input_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\02. Mestrado\TU Darmstadt\Energy Science and Engineering\5. Sommersemester 2023\Masterarbeit\5. Thesis\3. Python Routine\masterthesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07606721-44C5-481D-ABEC-A5F267D48DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046506B8-61BD-4436-811E-2151DC37833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>HOURS</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>cost_y</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +384,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -392,8 +398,11 @@
       <c r="C2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -404,8 +413,11 @@
       <c r="C3">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" ref="A4:A25" si="0">A3+1</f>
         <v>3</v>
@@ -416,8 +428,11 @@
       <c r="C4">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -428,8 +443,11 @@
       <c r="C5">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -440,8 +458,12 @@
       <c r="C6">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -452,8 +474,11 @@
       <c r="C7">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -464,8 +489,11 @@
       <c r="C8">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -476,8 +504,11 @@
       <c r="C9">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -488,8 +519,11 @@
       <c r="C10">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -500,8 +534,11 @@
       <c r="C11">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -512,8 +549,11 @@
       <c r="C12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -524,8 +564,11 @@
       <c r="C13">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -536,8 +579,11 @@
       <c r="C14">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -548,8 +594,11 @@
       <c r="C15">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -560,8 +609,11 @@
       <c r="C16">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -572,8 +624,11 @@
       <c r="C17">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -584,8 +639,11 @@
       <c r="C18">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -596,8 +654,11 @@
       <c r="C19">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -608,8 +669,11 @@
       <c r="C20">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -620,8 +684,11 @@
       <c r="C21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -632,8 +699,11 @@
       <c r="C22">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -644,8 +714,11 @@
       <c r="C23">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -656,8 +729,11 @@
       <c r="C24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -667,6 +743,9 @@
       </c>
       <c r="C25">
         <v>0.41</v>
+      </c>
+      <c r="D25">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/input/df_input_test.xlsx
+++ b/input/df_input_test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\02. Mestrado\TU Darmstadt\Energy Science and Engineering\5. Sommersemester 2023\Masterarbeit\5. Thesis\3. Python Routine\masterthesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046506B8-61BD-4436-811E-2151DC37833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534414C-0208-4FA1-A44F-39500BCB9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="series" sheetId="1" r:id="rId1"/>
+    <sheet name="conect" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>HOURS</t>
   </si>
@@ -49,13 +50,27 @@
   <si>
     <t>demand</t>
   </si>
+  <si>
+    <t>quant_x</t>
+  </si>
+  <si>
+    <t>quant_y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -366,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,11 +404,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.47</v>
       </c>
       <c r="C2">
@@ -402,7 +418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -417,7 +433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" ref="A4:A25" si="0">A3+1</f>
         <v>3</v>
@@ -432,7 +448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -447,7 +463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -461,9 +477,8 @@
       <c r="D6">
         <v>59</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -478,7 +493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -493,7 +508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -508,7 +523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -523,7 +538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -538,7 +553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -553,7 +568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -568,7 +583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -583,7 +598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -598,7 +613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -752,4 +767,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A0F1A-80EA-47E1-8251-3DB72BF53735}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/df_input_test.xlsx
+++ b/input/df_input_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\02. Mestrado\TU Darmstadt\Energy Science and Engineering\5. Sommersemester 2023\Masterarbeit\5. Thesis\3. Python Routine\masterthesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534414C-0208-4FA1-A44F-39500BCB9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2973E2CF-DC26-46A3-864C-2780ADF0C23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,16 +61,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,9 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -385,7 +376,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -771,15 +762,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A0F1A-80EA-47E1-8251-3DB72BF53735}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -787,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -797,9 +788,6 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
